--- a/data/trans_camb/P16A12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Edad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.01251243843819656</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.04170343589763507</v>
+        <v>0.04170343589763505</v>
       </c>
     </row>
     <row r="5">
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3931229784858608</v>
+        <v>-0.3910401603813745</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.401086416061964</v>
+        <v>-0.4017268462681722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9947773874145976</v>
+        <v>-0.9917676041424341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2293423004415276</v>
+        <v>0.2315402426358334</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03038350086641671</v>
+        <v>0.01665340561591372</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2029918022398872</v>
+        <v>-0.3029104692351132</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2037111248942937</v>
+        <v>-0.2043858324770167</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.044906881495401</v>
+        <v>0.9380301456204729</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6806625407703635</v>
+        <v>0.6936457412380801</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.890144698862314</v>
+        <v>1.910602276966447</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>1.557439945409431</v>
+        <v>1.763925987775508</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.220050758911736</v>
+        <v>1.142328133865152</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4551991137232279</v>
+        <v>0.3439723792905948</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5960226451113791</v>
+        <v>0.5771878171225996</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +767,7 @@
         <v>0.122954967956153</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4098037844327854</v>
+        <v>0.4098037844327851</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.404253392019562</v>
+        <v>0.3126485059235609</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.569382002955947</v>
+        <v>-0.7520155188914268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4847670939882275</v>
+        <v>-0.4835607904623606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01508007074187105</v>
+        <v>0.04263178560742835</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5206436535838378</v>
+        <v>-0.5126065382783764</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8546144351239647</v>
+        <v>-0.8296783329448171</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4501724111490903</v>
+        <v>0.4122096974413344</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3811498520683888</v>
+        <v>-0.3477754557527081</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4365251581941808</v>
+        <v>-0.4482855862850498</v>
       </c>
     </row>
     <row r="12">
@@ -886,31 +886,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.728116681509518</v>
+        <v>2.802432279576529</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6906386659633925</v>
+        <v>0.6836551940106381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.708444653678323</v>
+        <v>1.599922191183476</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.207711984832216</v>
+        <v>2.272927623135224</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9696133914419308</v>
+        <v>0.8275645786804717</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3064524630685456</v>
+        <v>0.2902588343948852</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.02213104547675</v>
+        <v>2.007105835537955</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5807271606006313</v>
+        <v>0.6022696928842372</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6567621027150399</v>
+        <v>0.6194819565771938</v>
       </c>
     </row>
     <row r="13">
@@ -959,12 +959,12 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.6343110557374816</v>
+        <v>-0.5473890847488412</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>0.2441237968642662</v>
+        <v>0.01214930001520218</v>
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="inlineStr"/>
@@ -983,7 +983,7 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>21.68636822752388</v>
+        <v>21.3846610218109</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
@@ -1024,7 +1024,7 @@
         <v>-0.09531061851555753</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.2453904802297095</v>
+        <v>0.2453904802297091</v>
       </c>
     </row>
     <row r="17">
@@ -1035,31 +1035,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.380340116317364</v>
+        <v>-2.62007659465084</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.688601854301502</v>
+        <v>-1.924095012137523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.210921603403134</v>
+        <v>-1.298282930177356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2957785529719262</v>
+        <v>-0.3783437204520712</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7813903743222137</v>
+        <v>-0.9981116202950462</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.787442700235628</v>
+        <v>-0.8783088197402308</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.033481797590489</v>
+        <v>-1.061427098703864</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9338198209185312</v>
+        <v>-0.9171035892381462</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.7289382897273707</v>
+        <v>-0.6852254394167075</v>
       </c>
     </row>
     <row r="18">
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1681777579913883</v>
+        <v>-0.1531733676544337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8411623220541895</v>
+        <v>0.8037760508580356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.81900519268061</v>
+        <v>1.770573324469475</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.177244258162967</v>
+        <v>2.103029269661525</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.367882499165685</v>
+        <v>1.267706206999332</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.235688371669762</v>
+        <v>1.147862459040214</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.631625797954208</v>
+        <v>0.6891923298824739</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7298976352904043</v>
+        <v>0.7686408561907254</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.12869912066523</v>
+        <v>1.075277919761362</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1129,7 @@
         <v>-0.07231141411055683</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1861758208166753</v>
+        <v>0.186175820816675</v>
       </c>
     </row>
     <row r="20">
@@ -1140,31 +1140,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9188680451243145</v>
+        <v>-0.9351158979820868</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7149796120075832</v>
+        <v>-0.7238050194570688</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.524536632329115</v>
+        <v>-0.5509216863553805</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3574374370741684</v>
+        <v>-0.3688247875085845</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6233166271646993</v>
+        <v>-0.686710531005763</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5760962166391285</v>
+        <v>-0.6107234772501523</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5851405759426419</v>
+        <v>-0.5915945013551774</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5367517388841072</v>
+        <v>-0.5273358790685823</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3999707880852257</v>
+        <v>-0.4047788921001381</v>
       </c>
     </row>
     <row r="21">
@@ -1175,31 +1175,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1118421855285532</v>
+        <v>-0.007299441920972841</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.905789391161949</v>
+        <v>0.8786124347688772</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.709673981361051</v>
+        <v>1.655491850079792</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.241719022650352</v>
+        <v>4.858233017623514</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.90883597290774</v>
+        <v>3.004782563992176</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.215921147403237</v>
+        <v>3.061863768007228</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6943940281768194</v>
+        <v>0.8671211399438372</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8232528097929194</v>
+        <v>1.014511426510768</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.284027736622316</v>
+        <v>1.160924372175466</v>
       </c>
     </row>
     <row r="22">
@@ -1220,7 +1220,7 @@
         <v>1.051596030876939</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.970154282165376</v>
+        <v>1.970154282165375</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.170940781910358</v>
@@ -1249,31 +1249,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.141541460627199</v>
+        <v>-3.133720796343505</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.575369776617412</v>
+        <v>-1.838425010753918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9384573824635494</v>
+        <v>-0.8995537038555813</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.986694709710768</v>
+        <v>-1.969791422815161</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.34723587869201</v>
+        <v>-2.434213354229356</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.358649675115664</v>
+        <v>-2.281116807721818</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.950207105104189</v>
+        <v>-2.054460232522893</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.35554814597464</v>
+        <v>-1.335896182012623</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.7830494569220361</v>
+        <v>-0.9696320030425363</v>
       </c>
     </row>
     <row r="24">
@@ -1284,31 +1284,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.499884956718069</v>
+        <v>1.668719854532722</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.830203081306944</v>
+        <v>3.540258455323551</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.481547589483547</v>
+        <v>4.51982185609244</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.336799613664098</v>
+        <v>2.475711539627922</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.979623050110121</v>
+        <v>1.916308125173888</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.405924792348091</v>
+        <v>1.332184468479604</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.249793405883899</v>
+        <v>1.391151483560143</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.017290577149445</v>
+        <v>2.150725643494549</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.25807347068451</v>
+        <v>2.315932296520649</v>
       </c>
     </row>
     <row r="25">
@@ -1325,7 +1325,7 @@
         <v>0.2350886949534776</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4404362373496484</v>
+        <v>0.4404362373496481</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.05131186957788002</v>
@@ -1354,31 +1354,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5595986367871796</v>
+        <v>-0.5285799725133319</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2990797024328316</v>
+        <v>-0.3297680386221956</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1908397520549914</v>
+        <v>-0.1667828539082498</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4699832414279338</v>
+        <v>-0.4695932781362576</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5242557146479058</v>
+        <v>-0.5197002590038691</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4943283670752773</v>
+        <v>-0.5030458584871059</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4020354862762822</v>
+        <v>-0.4191633895636878</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.27523390755364</v>
+        <v>-0.282231729895046</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1638557843933524</v>
+        <v>-0.1957269054675712</v>
       </c>
     </row>
     <row r="27">
@@ -1389,31 +1389,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5033177550214093</v>
+        <v>0.5861099725434099</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.192407286664459</v>
+        <v>1.033368299250718</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.439748971069925</v>
+        <v>1.407188011172807</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.118773772318668</v>
+        <v>1.044457498677568</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9372540382472972</v>
+        <v>0.8359241797407148</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6801580782079356</v>
+        <v>0.7131830331766744</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4316485599797</v>
+        <v>0.4383561249797549</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6504983945934275</v>
+        <v>0.6967546351317782</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.756580475248713</v>
+        <v>0.7944330873239261</v>
       </c>
     </row>
     <row r="28">
@@ -1434,7 +1434,7 @@
         <v>0.5296013042282666</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.7201937397549346</v>
+        <v>0.7201937397549318</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.602601454438557</v>
@@ -1452,7 +1452,7 @@
         <v>1.039567429606589</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.291505189751647</v>
+        <v>-1.291505189751649</v>
       </c>
     </row>
     <row r="29">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.287642568015158</v>
+        <v>-5.300453342400228</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.570603231228109</v>
+        <v>-4.099014280336505</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.700530809318573</v>
+        <v>-3.476062271592474</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.94147557454942</v>
+        <v>-2.675534792075105</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.547478124178005</v>
+        <v>-2.652931879079578</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.050805088480348</v>
+        <v>-7.041678629873349</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.469984445979498</v>
+        <v>-2.372789292945085</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.006969330389291</v>
+        <v>-1.858148892238075</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.985620432041359</v>
+        <v>-4.08006088506357</v>
       </c>
     </row>
     <row r="30">
@@ -1498,31 +1498,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.131046883564767</v>
+        <v>3.890610346282474</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.208262786299887</v>
+        <v>4.772081189675564</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.575883896234332</v>
+        <v>4.369147771821543</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.869048480952254</v>
+        <v>6.454324295562455</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.735423154368654</v>
+        <v>5.506204531319132</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.2069267458549244</v>
+        <v>-0.4287481633707497</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.772637112912446</v>
+        <v>3.948247646056523</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.314157240345833</v>
+        <v>4.201328538191134</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.268464506328306</v>
+        <v>1.183814003297606</v>
       </c>
     </row>
     <row r="31">
@@ -1539,7 +1539,7 @@
         <v>0.04380842273739943</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.05957415805459197</v>
+        <v>0.05957415805459174</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1593382856788421</v>
@@ -1557,7 +1557,7 @@
         <v>0.0940678354916209</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1168650481596068</v>
+        <v>-0.1168650481596069</v>
       </c>
     </row>
     <row r="32">
@@ -1568,31 +1568,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3812914773650989</v>
+        <v>-0.3716263750855435</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2496437551731239</v>
+        <v>-0.2862644217324802</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.246867406098609</v>
+        <v>-0.237005294761597</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2469105110789075</v>
+        <v>-0.2149016538386977</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.224059114824381</v>
+        <v>-0.2193318925066967</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5508797270724222</v>
+        <v>-0.5485633760242928</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1953296425725319</v>
+        <v>-0.1912308917523607</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.156615091999731</v>
+        <v>-0.1464352320493077</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3118688424382805</v>
+        <v>-0.3149985660255361</v>
       </c>
     </row>
     <row r="33">
@@ -1603,31 +1603,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4136119879332185</v>
+        <v>0.3935630840948247</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5481804894862385</v>
+        <v>0.4818911131806163</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4933143307671669</v>
+        <v>0.4610883820749903</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7205157597510722</v>
+        <v>0.8040977528470822</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7098299214678881</v>
+        <v>0.6809585762136466</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01354001691304887</v>
+        <v>-0.05552154980081558</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4005613300044203</v>
+        <v>0.4211970610123097</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.45314871745247</v>
+        <v>0.4274416648783543</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1380673511668811</v>
+        <v>0.130138900078648</v>
       </c>
     </row>
     <row r="34">
@@ -1666,7 +1666,7 @@
         <v>4.26685032835481</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.188236925740997</v>
+        <v>-2.188236925740991</v>
       </c>
     </row>
     <row r="35">
@@ -1677,31 +1677,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.939510203012444</v>
+        <v>2.785289518510265</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.133721515559394</v>
+        <v>0.7902895884626181</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.52158953115742</v>
+        <v>-4.917280924009057</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.69861575288614</v>
+        <v>-2.797977118690775</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.045410135303247</v>
+        <v>-4.595549230240866</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.726640706352651</v>
+        <v>-9.593300906705114</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.313273613058271</v>
+        <v>1.62754452977611</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.2630081158937419</v>
+        <v>0.08453268179107007</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.923667293761715</v>
+        <v>-5.954132375605589</v>
       </c>
     </row>
     <row r="36">
@@ -1712,31 +1712,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>16.35933923538824</v>
+        <v>16.61310829472362</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.55998973333664</v>
+        <v>14.00491321923921</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.273990345384188</v>
+        <v>5.80395261929154</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.27579743927533</v>
+        <v>9.112838091469474</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.707880441939835</v>
+        <v>6.974193012218233</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.1121797681550246</v>
+        <v>-0.3555262304428736</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.65791548878831</v>
+        <v>10.71258760733448</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.63740832656315</v>
+        <v>8.71578088760803</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.306184184451955</v>
+        <v>1.507244287656454</v>
       </c>
     </row>
     <row r="37">
@@ -1771,7 +1771,7 @@
         <v>0.2116027549920967</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1085196166795864</v>
+        <v>-0.1085196166795861</v>
       </c>
     </row>
     <row r="38">
@@ -1782,31 +1782,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.129866262929978</v>
+        <v>0.1206597858240614</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.04681758835220072</v>
+        <v>0.02873955719183098</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1983132241796598</v>
+        <v>-0.2108227364558861</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1155457265289833</v>
+        <v>-0.1199556910974362</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2159229176072624</v>
+        <v>-0.2011759042579264</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3993387183440728</v>
+        <v>-0.3935609893767609</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05845874085327274</v>
+        <v>0.07102752837501648</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.008903908268888074</v>
+        <v>0.004353153260499904</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2611077108491917</v>
+        <v>-0.2599325821343303</v>
       </c>
     </row>
     <row r="39">
@@ -1817,31 +1817,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.008037135673396</v>
+        <v>0.9721668477965834</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8005641743336556</v>
+        <v>0.8458940358278328</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3988382553348793</v>
+        <v>0.3622544203793954</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5543153721030148</v>
+        <v>0.5050713947813991</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3687202615484122</v>
+        <v>0.3775125801909078</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.002193865881315296</v>
+        <v>-0.0177326897996519</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6022739552296099</v>
+        <v>0.586539303405137</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.470039128504427</v>
+        <v>0.4805713471793654</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.07584559494887295</v>
+        <v>0.09230194036582196</v>
       </c>
     </row>
     <row r="40">
@@ -1891,31 +1891,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.47469096532276</v>
+        <v>1.065843196364151</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.699343301188551</v>
+        <v>5.567471902517863</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.626666363800088</v>
+        <v>1.114727092566365</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.018801701037803</v>
+        <v>3.116051135261773</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.8326158209223129</v>
+        <v>-1.417065915556536</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.112586118675457</v>
+        <v>3.759141165120557</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.227566274167877</v>
+        <v>4.222788817266475</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.216848411239374</v>
+        <v>3.605954899953354</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.206942740672064</v>
+        <v>4.092203887971495</v>
       </c>
     </row>
     <row r="42">
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>16.77709204469703</v>
+        <v>16.74783963080791</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>21.39335392375069</v>
+        <v>20.84498612760045</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15.41543880623738</v>
+        <v>14.80098769743191</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>17.08582724938583</v>
+        <v>17.00475021863526</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>12.69997053235789</v>
+        <v>12.30135814040406</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.22039902133694</v>
+        <v>14.51165493005603</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>14.62184356568887</v>
+        <v>15.29921102127143</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.35006994480958</v>
+        <v>13.88823002203952</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.78771602439635</v>
+        <v>12.64870828995099</v>
       </c>
     </row>
     <row r="43">
@@ -1996,31 +1996,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01166321069519909</v>
+        <v>0.03425230851750619</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2374656673951392</v>
+        <v>0.2180983131773076</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.06023894516526495</v>
+        <v>0.04990554504944834</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1637354015663996</v>
+        <v>0.1290802233006005</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03537119003205213</v>
+        <v>-0.06123643527856213</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1250197859676369</v>
+        <v>0.1410619416824785</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1757342539509188</v>
+        <v>0.189499064557384</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1415716776668728</v>
+        <v>0.1528570398794028</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1778118736530118</v>
+        <v>0.1798381904270131</v>
       </c>
     </row>
     <row r="45">
@@ -2031,31 +2031,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.039442275449628</v>
+        <v>1.045397309164463</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.380377533281275</v>
+        <v>1.304971675881639</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.00370133486472</v>
+        <v>0.9497559601632279</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.009609702842346</v>
+        <v>0.9915825197137649</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7339977005450493</v>
+        <v>0.7165797643207477</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8499951343919511</v>
+        <v>0.9136498931500076</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8449016823392449</v>
+        <v>0.8537934695710852</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7562099446283341</v>
+        <v>0.7983740820174726</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7464503931586352</v>
+        <v>0.748519661964878</v>
       </c>
     </row>
     <row r="46">
@@ -2094,7 +2094,7 @@
         <v>2.261561510021494</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.196853052965689</v>
+        <v>2.19685305296569</v>
       </c>
     </row>
     <row r="47">
@@ -2105,31 +2105,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.4744844673662046</v>
+        <v>0.5183138881338702</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.543066755599384</v>
+        <v>1.435287809432076</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.032154691772572</v>
+        <v>1.887194643542861</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.232427870526843</v>
+        <v>1.152458102857732</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.3861811684506885</v>
+        <v>0.571820212115545</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.2792423161234185</v>
+        <v>0.3597827060496246</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.153332813696397</v>
+        <v>1.118478589936004</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.360073600142674</v>
+        <v>1.449347464256375</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.376022562609621</v>
+        <v>1.420568509184602</v>
       </c>
     </row>
     <row r="48">
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.96165281007264</v>
+        <v>2.907513133590931</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.031808288957524</v>
+        <v>3.885494740757761</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.263838150805756</v>
+        <v>4.213389544935191</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.59943848249993</v>
+        <v>3.798312811881881</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.031488745503852</v>
+        <v>3.091330718722785</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.279528799968997</v>
+        <v>2.489894151576123</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.948939656697881</v>
+        <v>3.000460500659711</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.182108666353801</v>
+        <v>3.263884872679983</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.91307011796451</v>
+        <v>2.959434149381495</v>
       </c>
     </row>
     <row r="49">
@@ -2199,7 +2199,7 @@
         <v>0.38764470067052</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.376553297516064</v>
+        <v>0.3765532975160642</v>
       </c>
     </row>
     <row r="50">
@@ -2210,31 +2210,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.07657901634389355</v>
+        <v>0.08399916279151809</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2481980065531033</v>
+        <v>0.2254297874607238</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3307739734113105</v>
+        <v>0.3006272271708457</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1825750130277546</v>
+        <v>0.1773128696656255</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05978972414212593</v>
+        <v>0.08532177381509028</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04117563161697927</v>
+        <v>0.05252169537233085</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1811873615420612</v>
+        <v>0.1757222305566409</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2178656920236383</v>
+        <v>0.2295387648919065</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2165754794159862</v>
+        <v>0.2156695088702203</v>
       </c>
     </row>
     <row r="51">
@@ -2245,31 +2245,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.587390804046185</v>
+        <v>0.5655035097794426</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.7782743413639595</v>
+        <v>0.7617214764297999</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.8379340267429265</v>
+        <v>0.844915137777476</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6617286857953925</v>
+        <v>0.6996592478309461</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5505619542916705</v>
+        <v>0.5633970513118035</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4126456834366962</v>
+        <v>0.4605376087585222</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.540877702318884</v>
+        <v>0.5608862549269228</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6000604165947373</v>
+        <v>0.5983318140803778</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.544908691179282</v>
+        <v>0.5446680563469308</v>
       </c>
     </row>
     <row r="52">
